--- a/data/expected_death_inla0_69_2020.xlsx
+++ b/data/expected_death_inla0_69_2020.xlsx
@@ -818,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.9211970163233</v>
+        <v>14.8236827533822</v>
       </c>
       <c r="D2" t="n">
-        <v>12.160240495452</v>
+        <v>11.9968969352647</v>
       </c>
       <c r="E2" t="n">
-        <v>18.5339342538925</v>
+        <v>18.2258426071753</v>
       </c>
       <c r="F2" t="n">
         <v>2020</v>
@@ -856,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0402346683453</v>
+        <v>35.2535095379853</v>
       </c>
       <c r="D3" t="n">
-        <v>30.2404043071972</v>
+        <v>30.5232460482857</v>
       </c>
       <c r="E3" t="n">
-        <v>40.2080777763563</v>
+        <v>40.9319070857681</v>
       </c>
       <c r="F3" t="n">
         <v>2020</v>
@@ -894,13 +894,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>51.1197276384682</v>
+        <v>51.2311440118078</v>
       </c>
       <c r="D4" t="n">
-        <v>44.4702226381528</v>
+        <v>45.3631462555091</v>
       </c>
       <c r="E4" t="n">
-        <v>57.8198160154204</v>
+        <v>57.3885578461717</v>
       </c>
       <c r="F4" t="n">
         <v>2020</v>
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>609.913303562488</v>
+        <v>609.984053123231</v>
       </c>
       <c r="D5" t="n">
-        <v>574.293355292654</v>
+        <v>569.532331272853</v>
       </c>
       <c r="E5" t="n">
-        <v>651.684928696888</v>
+        <v>655.974020052168</v>
       </c>
       <c r="F5" t="n">
         <v>2020</v>
@@ -970,13 +970,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>117.486141502039</v>
+        <v>118.228232553901</v>
       </c>
       <c r="D6" t="n">
-        <v>105.677489674636</v>
+        <v>106.543717296039</v>
       </c>
       <c r="E6" t="n">
-        <v>130.074267475944</v>
+        <v>131.653090536271</v>
       </c>
       <c r="F6" t="n">
         <v>2020</v>
@@ -1008,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>327.312856027725</v>
+        <v>328.493606597537</v>
       </c>
       <c r="D7" t="n">
-        <v>302.641687729612</v>
+        <v>303.927149046788</v>
       </c>
       <c r="E7" t="n">
-        <v>352.484415409742</v>
+        <v>354.449159519813</v>
       </c>
       <c r="F7" t="n">
         <v>2020</v>
@@ -1046,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>202.268837278871</v>
+        <v>202.302354608638</v>
       </c>
       <c r="D8" t="n">
-        <v>186.349809245289</v>
+        <v>186.253777841131</v>
       </c>
       <c r="E8" t="n">
-        <v>220.34594311648</v>
+        <v>219.455664896476</v>
       </c>
       <c r="F8" t="n">
         <v>2020</v>
@@ -1084,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0113487376482</v>
+        <v>25.9423116652154</v>
       </c>
       <c r="D9" t="n">
-        <v>22.8129946661895</v>
+        <v>22.9453380542211</v>
       </c>
       <c r="E9" t="n">
-        <v>29.3177812062696</v>
+        <v>29.3459824906247</v>
       </c>
       <c r="F9" t="n">
         <v>2020</v>
@@ -1122,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>56.3508191990401</v>
+        <v>56.4315015103582</v>
       </c>
       <c r="D10" t="n">
-        <v>50.1973918154876</v>
+        <v>49.8377778318925</v>
       </c>
       <c r="E10" t="n">
-        <v>63.4127097272641</v>
+        <v>63.6862246598114</v>
       </c>
       <c r="F10" t="n">
         <v>2020</v>
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>47.5900687844005</v>
+        <v>47.6299782991559</v>
       </c>
       <c r="D11" t="n">
-        <v>42.2117170081845</v>
+        <v>41.8537109854395</v>
       </c>
       <c r="E11" t="n">
-        <v>53.8811857780754</v>
+        <v>53.972017451881</v>
       </c>
       <c r="F11" t="n">
         <v>2020</v>
@@ -1198,13 +1198,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>79.2599669135113</v>
+        <v>79.4091035316741</v>
       </c>
       <c r="D12" t="n">
-        <v>70.9639334395208</v>
+        <v>70.6452412857491</v>
       </c>
       <c r="E12" t="n">
-        <v>88.369757298861</v>
+        <v>88.3534359515705</v>
       </c>
       <c r="F12" t="n">
         <v>2020</v>
@@ -1236,13 +1236,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>91.5564197626827</v>
+        <v>92.1419459357773</v>
       </c>
       <c r="D13" t="n">
-        <v>82.6566957515501</v>
+        <v>83.2445661697061</v>
       </c>
       <c r="E13" t="n">
-        <v>102.137813067765</v>
+        <v>102.708881228312</v>
       </c>
       <c r="F13" t="n">
         <v>2020</v>
@@ -1274,13 +1274,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>42.7733310667212</v>
+        <v>42.6512785394697</v>
       </c>
       <c r="D14" t="n">
-        <v>37.1659104541634</v>
+        <v>36.8914921516558</v>
       </c>
       <c r="E14" t="n">
-        <v>49.3725550116511</v>
+        <v>48.9945315607914</v>
       </c>
       <c r="F14" t="n">
         <v>2020</v>
@@ -1312,13 +1312,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.80522382643014</v>
+        <v>9.78730938299251</v>
       </c>
       <c r="D15" t="n">
-        <v>8.29686722795097</v>
+        <v>8.3061393283665</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5460102105196</v>
+        <v>11.5292878442802</v>
       </c>
       <c r="F15" t="n">
         <v>2020</v>
@@ -1350,13 +1350,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>78.8912749397133</v>
+        <v>78.3577633705635</v>
       </c>
       <c r="D16" t="n">
-        <v>70.8110352787703</v>
+        <v>70.4201139821899</v>
       </c>
       <c r="E16" t="n">
-        <v>88.2599481384137</v>
+        <v>87.5852109709745</v>
       </c>
       <c r="F16" t="n">
         <v>2020</v>
@@ -1388,13 +1388,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>67.4391001363848</v>
+        <v>67.318855891982</v>
       </c>
       <c r="D17" t="n">
-        <v>60.5580647945762</v>
+        <v>60.2569686752797</v>
       </c>
       <c r="E17" t="n">
-        <v>74.8183634726568</v>
+        <v>74.7184938579186</v>
       </c>
       <c r="F17" t="n">
         <v>2020</v>
@@ -1426,13 +1426,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>67.2768106997345</v>
+        <v>67.4326777990242</v>
       </c>
       <c r="D18" t="n">
-        <v>59.5701474905027</v>
+        <v>59.8448387723118</v>
       </c>
       <c r="E18" t="n">
-        <v>75.335778311793</v>
+        <v>76.9638553061233</v>
       </c>
       <c r="F18" t="n">
         <v>2020</v>
@@ -1464,13 +1464,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>15.2251825679872</v>
+        <v>15.0786779836701</v>
       </c>
       <c r="D19" t="n">
-        <v>12.8773296078183</v>
+        <v>12.739913620443</v>
       </c>
       <c r="E19" t="n">
-        <v>18.1411892921908</v>
+        <v>17.6959375315356</v>
       </c>
       <c r="F19" t="n">
         <v>2020</v>
@@ -1502,13 +1502,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>113.487673851742</v>
+        <v>114.437868370254</v>
       </c>
       <c r="D20" t="n">
-        <v>102.663953077811</v>
+        <v>103.360434865111</v>
       </c>
       <c r="E20" t="n">
-        <v>124.937321605687</v>
+        <v>125.033280795243</v>
       </c>
       <c r="F20" t="n">
         <v>2020</v>
@@ -1540,13 +1540,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>52.1778260611731</v>
+        <v>52.5964763193824</v>
       </c>
       <c r="D21" t="n">
-        <v>46.0380059759583</v>
+        <v>46.5847863984551</v>
       </c>
       <c r="E21" t="n">
-        <v>58.7656155268169</v>
+        <v>59.9315769921356</v>
       </c>
       <c r="F21" t="n">
         <v>2020</v>
@@ -1578,13 +1578,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>54.318624160098</v>
+        <v>54.2802441022674</v>
       </c>
       <c r="D22" t="n">
-        <v>47.3409749958382</v>
+        <v>48.5008662684048</v>
       </c>
       <c r="E22" t="n">
-        <v>60.8848054181512</v>
+        <v>61.2662864971796</v>
       </c>
       <c r="F22" t="n">
         <v>2020</v>
@@ -1616,13 +1616,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>162.993551608206</v>
+        <v>164.308880644593</v>
       </c>
       <c r="D23" t="n">
-        <v>149.14036500653</v>
+        <v>149.795947150816</v>
       </c>
       <c r="E23" t="n">
-        <v>179.187060190547</v>
+        <v>181.039182183419</v>
       </c>
       <c r="F23" t="n">
         <v>2020</v>
@@ -1654,13 +1654,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>113.73977925154</v>
+        <v>112.91142297073</v>
       </c>
       <c r="D24" t="n">
-        <v>103.276952377723</v>
+        <v>100.848797422712</v>
       </c>
       <c r="E24" t="n">
-        <v>124.986924452195</v>
+        <v>126.228064428975</v>
       </c>
       <c r="F24" t="n">
         <v>2020</v>
@@ -1692,13 +1692,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>73.9152099673575</v>
+        <v>74.7305575548324</v>
       </c>
       <c r="D25" t="n">
-        <v>66.1370673699691</v>
+        <v>66.7461015645124</v>
       </c>
       <c r="E25" t="n">
-        <v>83.1848831450772</v>
+        <v>84.4830956042833</v>
       </c>
       <c r="F25" t="n">
         <v>2020</v>
@@ -1730,13 +1730,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>129.466322885254</v>
+        <v>129.576557321779</v>
       </c>
       <c r="D26" t="n">
-        <v>117.728927644386</v>
+        <v>117.312064378567</v>
       </c>
       <c r="E26" t="n">
-        <v>143.129657754865</v>
+        <v>143.495282209969</v>
       </c>
       <c r="F26" t="n">
         <v>2020</v>
@@ -1768,13 +1768,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>67.9265604772436</v>
+        <v>67.572029176565</v>
       </c>
       <c r="D27" t="n">
-        <v>60.7422508674842</v>
+        <v>60.3857478956846</v>
       </c>
       <c r="E27" t="n">
-        <v>76.0467768458297</v>
+        <v>76.1450892092366</v>
       </c>
       <c r="F27" t="n">
         <v>2020</v>
@@ -1806,13 +1806,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>17.7150240258402</v>
+        <v>17.7862754060794</v>
       </c>
       <c r="D28" t="n">
-        <v>15.541197467738</v>
+        <v>15.473023915398</v>
       </c>
       <c r="E28" t="n">
-        <v>20.4846930866484</v>
+        <v>20.6922274755997</v>
       </c>
       <c r="F28" t="n">
         <v>2020</v>
@@ -1844,13 +1844,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>46.4908903171025</v>
+        <v>46.8149610587615</v>
       </c>
       <c r="D29" t="n">
-        <v>41.1799561166667</v>
+        <v>41.5938970257216</v>
       </c>
       <c r="E29" t="n">
-        <v>53.3824148287413</v>
+        <v>52.5557692874564</v>
       </c>
       <c r="F29" t="n">
         <v>2020</v>
@@ -1882,13 +1882,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>29.7466940194055</v>
+        <v>29.7433214995428</v>
       </c>
       <c r="D30" t="n">
-        <v>25.5203851558041</v>
+        <v>25.7965522541469</v>
       </c>
       <c r="E30" t="n">
-        <v>34.463969012793</v>
+        <v>34.5070142600813</v>
       </c>
       <c r="F30" t="n">
         <v>2020</v>
@@ -1920,13 +1920,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>181.509950922252</v>
+        <v>181.934420950297</v>
       </c>
       <c r="D31" t="n">
-        <v>166.739062420128</v>
+        <v>166.614325454036</v>
       </c>
       <c r="E31" t="n">
-        <v>197.776178441094</v>
+        <v>198.147812093477</v>
       </c>
       <c r="F31" t="n">
         <v>2020</v>
@@ -1958,13 +1958,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>82.9191343426816</v>
+        <v>83.3265896993677</v>
       </c>
       <c r="D32" t="n">
-        <v>74.476621289549</v>
+        <v>74.0268587167</v>
       </c>
       <c r="E32" t="n">
-        <v>92.731180858086</v>
+        <v>93.1999209629082</v>
       </c>
       <c r="F32" t="n">
         <v>2020</v>
@@ -1996,13 +1996,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>50.6313674849801</v>
+        <v>50.7696450572438</v>
       </c>
       <c r="D33" t="n">
-        <v>43.9544972405831</v>
+        <v>43.5069509834131</v>
       </c>
       <c r="E33" t="n">
-        <v>58.5326293048526</v>
+        <v>58.2182372345662</v>
       </c>
       <c r="F33" t="n">
         <v>2020</v>
@@ -2034,13 +2034,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>123.132464540404</v>
+        <v>123.593393919937</v>
       </c>
       <c r="D34" t="n">
-        <v>111.918624458861</v>
+        <v>111.712418787146</v>
       </c>
       <c r="E34" t="n">
-        <v>135.912612622042</v>
+        <v>135.653254525906</v>
       </c>
       <c r="F34" t="n">
         <v>2020</v>
@@ -2072,13 +2072,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9314660321014</v>
+        <v>22.0232039185632</v>
       </c>
       <c r="D35" t="n">
-        <v>18.8529298723375</v>
+        <v>18.6129593514456</v>
       </c>
       <c r="E35" t="n">
-        <v>25.6597767009807</v>
+        <v>25.5745552664421</v>
       </c>
       <c r="F35" t="n">
         <v>2020</v>
@@ -2110,13 +2110,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>116.036131357528</v>
+        <v>115.827933421117</v>
       </c>
       <c r="D36" t="n">
-        <v>105.549559252118</v>
+        <v>105.63444911829</v>
       </c>
       <c r="E36" t="n">
-        <v>127.199179917991</v>
+        <v>127.419257780801</v>
       </c>
       <c r="F36" t="n">
         <v>2020</v>
@@ -2148,13 +2148,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>24.3928740442679</v>
+        <v>24.2762429609127</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8438808256672</v>
+        <v>21.1229305779351</v>
       </c>
       <c r="E37" t="n">
-        <v>27.8858712783641</v>
+        <v>28.0438956764246</v>
       </c>
       <c r="F37" t="n">
         <v>2020</v>
@@ -2186,13 +2186,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>160.796058878303</v>
+        <v>160.930721926414</v>
       </c>
       <c r="D38" t="n">
-        <v>146.431266999625</v>
+        <v>146.428036076234</v>
       </c>
       <c r="E38" t="n">
-        <v>176.809666209227</v>
+        <v>176.588851468978</v>
       </c>
       <c r="F38" t="n">
         <v>2020</v>
@@ -2224,13 +2224,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>94.9780428096271</v>
+        <v>95.2701244038288</v>
       </c>
       <c r="D39" t="n">
-        <v>85.8122211427438</v>
+        <v>85.5374999045385</v>
       </c>
       <c r="E39" t="n">
-        <v>105.771536226522</v>
+        <v>106.16257374211</v>
       </c>
       <c r="F39" t="n">
         <v>2020</v>
@@ -2262,13 +2262,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>115.59794085925</v>
+        <v>115.391599950567</v>
       </c>
       <c r="D40" t="n">
-        <v>104.017450476681</v>
+        <v>104.301180496442</v>
       </c>
       <c r="E40" t="n">
-        <v>127.318694001686</v>
+        <v>128.11552103073</v>
       </c>
       <c r="F40" t="n">
         <v>2020</v>
@@ -2300,13 +2300,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>129.595780415572</v>
+        <v>130.07318126677</v>
       </c>
       <c r="D41" t="n">
-        <v>118.144672437786</v>
+        <v>118.244393238452</v>
       </c>
       <c r="E41" t="n">
-        <v>142.555077313467</v>
+        <v>143.151053799814</v>
       </c>
       <c r="F41" t="n">
         <v>2020</v>
@@ -2338,13 +2338,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>18.3958436730371</v>
+        <v>18.2626867930787</v>
       </c>
       <c r="D42" t="n">
-        <v>15.6610797688617</v>
+        <v>15.4603269319864</v>
       </c>
       <c r="E42" t="n">
-        <v>21.6640341401206</v>
+        <v>21.7456315212414</v>
       </c>
       <c r="F42" t="n">
         <v>2020</v>
@@ -2376,13 +2376,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>7.34207286353096</v>
+        <v>7.30447319362127</v>
       </c>
       <c r="D43" t="n">
-        <v>6.21644652226916</v>
+        <v>6.17965137106948</v>
       </c>
       <c r="E43" t="n">
-        <v>8.72863060088879</v>
+        <v>8.69662510742809</v>
       </c>
       <c r="F43" t="n">
         <v>2020</v>
@@ -2414,13 +2414,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>83.694348320465</v>
+        <v>83.7433779492084</v>
       </c>
       <c r="D44" t="n">
-        <v>75.8669424766023</v>
+        <v>75.6697354702295</v>
       </c>
       <c r="E44" t="n">
-        <v>92.6059895024767</v>
+        <v>93.019263544463</v>
       </c>
       <c r="F44" t="n">
         <v>2020</v>
@@ -2452,13 +2452,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>21.7394653611</v>
+        <v>21.8204080368895</v>
       </c>
       <c r="D45" t="n">
-        <v>18.2699944266037</v>
+        <v>18.4873703753</v>
       </c>
       <c r="E45" t="n">
-        <v>25.4512417012539</v>
+        <v>25.9352000097462</v>
       </c>
       <c r="F45" t="n">
         <v>2020</v>
@@ -2490,13 +2490,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>65.8782192027791</v>
+        <v>66.0667947539597</v>
       </c>
       <c r="D46" t="n">
-        <v>58.8495886623246</v>
+        <v>58.9493149424606</v>
       </c>
       <c r="E46" t="n">
-        <v>73.7049979186793</v>
+        <v>73.8044524184815</v>
       </c>
       <c r="F46" t="n">
         <v>2020</v>
@@ -2528,13 +2528,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>50.2230203836273</v>
+        <v>50.1895885082813</v>
       </c>
       <c r="D47" t="n">
-        <v>44.4230686115927</v>
+        <v>44.2782324681724</v>
       </c>
       <c r="E47" t="n">
-        <v>56.2683903479715</v>
+        <v>55.7985181668825</v>
       </c>
       <c r="F47" t="n">
         <v>2020</v>
@@ -2566,13 +2566,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>86.858483260338</v>
+        <v>87.0447250651964</v>
       </c>
       <c r="D48" t="n">
-        <v>76.6210877362415</v>
+        <v>77.7134641643825</v>
       </c>
       <c r="E48" t="n">
-        <v>96.2564579523799</v>
+        <v>97.0140682500367</v>
       </c>
       <c r="F48" t="n">
         <v>2020</v>
@@ -2604,13 +2604,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>186.544038267544</v>
+        <v>186.367114296561</v>
       </c>
       <c r="D49" t="n">
-        <v>171.168581673653</v>
+        <v>170.149474052435</v>
       </c>
       <c r="E49" t="n">
-        <v>203.588753889177</v>
+        <v>202.637996412144</v>
       </c>
       <c r="F49" t="n">
         <v>2020</v>
@@ -2642,13 +2642,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>24.2778293812987</v>
+        <v>24.3901276854298</v>
       </c>
       <c r="D50" t="n">
-        <v>21.0573287240125</v>
+        <v>20.9441296676633</v>
       </c>
       <c r="E50" t="n">
-        <v>28.0152637965111</v>
+        <v>28.0615039153185</v>
       </c>
       <c r="F50" t="n">
         <v>2020</v>
@@ -2680,13 +2680,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>85.2212361636177</v>
+        <v>85.3469868995275</v>
       </c>
       <c r="D51" t="n">
-        <v>76.388319364979</v>
+        <v>76.9233110738561</v>
       </c>
       <c r="E51" t="n">
-        <v>94.4271544101154</v>
+        <v>94.6849072903789</v>
       </c>
       <c r="F51" t="n">
         <v>2020</v>
@@ -2718,13 +2718,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>45.7699518080286</v>
+        <v>45.8447637930704</v>
       </c>
       <c r="D52" t="n">
-        <v>39.9470835391076</v>
+        <v>40.0645119811326</v>
       </c>
       <c r="E52" t="n">
-        <v>52.3236909563844</v>
+        <v>51.9035316784732</v>
       </c>
       <c r="F52" t="n">
         <v>2020</v>
@@ -2756,13 +2756,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>10.5564644906249</v>
+        <v>10.4680804304788</v>
       </c>
       <c r="D53" t="n">
-        <v>8.44741483899537</v>
+        <v>8.51933045058306</v>
       </c>
       <c r="E53" t="n">
-        <v>13.0680612926301</v>
+        <v>13.1422484384952</v>
       </c>
       <c r="F53" t="n">
         <v>2020</v>
@@ -2794,13 +2794,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>5.958469272594</v>
+        <v>5.97959738227777</v>
       </c>
       <c r="D54" t="n">
-        <v>4.28681437440409</v>
+        <v>4.41036899954</v>
       </c>
       <c r="E54" t="n">
-        <v>8.04206613681651</v>
+        <v>7.96576902199592</v>
       </c>
       <c r="F54" t="n">
         <v>2020</v>
@@ -2832,13 +2832,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>77.3933627300948</v>
+        <v>77.3320862879055</v>
       </c>
       <c r="D55" t="n">
-        <v>69.9125514547432</v>
+        <v>69.5837796316737</v>
       </c>
       <c r="E55" t="n">
-        <v>85.43930552344</v>
+        <v>86.0753381888474</v>
       </c>
       <c r="F55" t="n">
         <v>2020</v>
@@ -2870,13 +2870,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>123.362940555703</v>
+        <v>123.307297986612</v>
       </c>
       <c r="D56" t="n">
-        <v>112.004152886353</v>
+        <v>112.353953156295</v>
       </c>
       <c r="E56" t="n">
-        <v>135.903998158601</v>
+        <v>135.821855126239</v>
       </c>
       <c r="F56" t="n">
         <v>2020</v>
@@ -2908,13 +2908,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>144.799495286198</v>
+        <v>144.793053027386</v>
       </c>
       <c r="D57" t="n">
-        <v>132.62985985347</v>
+        <v>131.597659292099</v>
       </c>
       <c r="E57" t="n">
-        <v>158.318953918691</v>
+        <v>158.699981513826</v>
       </c>
       <c r="F57" t="n">
         <v>2020</v>
@@ -2946,13 +2946,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>162.980837588239</v>
+        <v>162.89120967457</v>
       </c>
       <c r="D58" t="n">
-        <v>148.410557167678</v>
+        <v>147.41654492836</v>
       </c>
       <c r="E58" t="n">
-        <v>177.984795638602</v>
+        <v>176.634656539819</v>
       </c>
       <c r="F58" t="n">
         <v>2020</v>
@@ -2984,13 +2984,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>46.5493822449182</v>
+        <v>46.2008757194307</v>
       </c>
       <c r="D59" t="n">
-        <v>40.4116871580682</v>
+        <v>39.3786787429333</v>
       </c>
       <c r="E59" t="n">
-        <v>53.7512551171639</v>
+        <v>53.5737413869268</v>
       </c>
       <c r="F59" t="n">
         <v>2020</v>
@@ -3022,13 +3022,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>116.197056269554</v>
+        <v>117.168460870682</v>
       </c>
       <c r="D60" t="n">
-        <v>105.198405830857</v>
+        <v>105.361912737059</v>
       </c>
       <c r="E60" t="n">
-        <v>128.073541474478</v>
+        <v>130.715327677262</v>
       </c>
       <c r="F60" t="n">
         <v>2020</v>
@@ -3060,13 +3060,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>76.9030517246876</v>
+        <v>77.0412679825262</v>
       </c>
       <c r="D61" t="n">
-        <v>68.3914617584918</v>
+        <v>69.0022859719553</v>
       </c>
       <c r="E61" t="n">
-        <v>86.0602103826981</v>
+        <v>86.0131158063179</v>
       </c>
       <c r="F61" t="n">
         <v>2020</v>
@@ -3098,13 +3098,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>55.3589145742304</v>
+        <v>55.3786578064658</v>
       </c>
       <c r="D62" t="n">
-        <v>49.029656715627</v>
+        <v>49.3109796009185</v>
       </c>
       <c r="E62" t="n">
-        <v>62.4919423599667</v>
+        <v>62.1621304052374</v>
       </c>
       <c r="F62" t="n">
         <v>2020</v>
@@ -3136,13 +3136,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>244.345942261564</v>
+        <v>245.865367799086</v>
       </c>
       <c r="D63" t="n">
-        <v>225.367220779125</v>
+        <v>226.643365899669</v>
       </c>
       <c r="E63" t="n">
-        <v>266.332457004785</v>
+        <v>266.141014006587</v>
       </c>
       <c r="F63" t="n">
         <v>2020</v>
@@ -3174,13 +3174,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>16.5736761500515</v>
+        <v>16.5266468455281</v>
       </c>
       <c r="D64" t="n">
-        <v>14.3106210493058</v>
+        <v>14.0143962500742</v>
       </c>
       <c r="E64" t="n">
-        <v>19.3647934096345</v>
+        <v>19.5245730532963</v>
       </c>
       <c r="F64" t="n">
         <v>2020</v>
@@ -3212,13 +3212,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>72.7951595108161</v>
+        <v>73.172222505518</v>
       </c>
       <c r="D65" t="n">
-        <v>64.5144937051629</v>
+        <v>64.9071582331614</v>
       </c>
       <c r="E65" t="n">
-        <v>82.4339280145101</v>
+        <v>82.944700799886</v>
       </c>
       <c r="F65" t="n">
         <v>2020</v>
@@ -3250,13 +3250,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>64.6366916799691</v>
+        <v>64.723975655642</v>
       </c>
       <c r="D66" t="n">
-        <v>57.7191213367523</v>
+        <v>57.5236702155343</v>
       </c>
       <c r="E66" t="n">
-        <v>72.3730145388431</v>
+        <v>72.797762511525</v>
       </c>
       <c r="F66" t="n">
         <v>2020</v>
@@ -3288,13 +3288,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>21.515015278354</v>
+        <v>21.4019360090613</v>
       </c>
       <c r="D67" t="n">
-        <v>18.5637116774015</v>
+        <v>18.322862607537</v>
       </c>
       <c r="E67" t="n">
-        <v>25.000917707928</v>
+        <v>25.2298791716033</v>
       </c>
       <c r="F67" t="n">
         <v>2020</v>
@@ -3326,13 +3326,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>34.4856726371198</v>
+        <v>34.6496997540565</v>
       </c>
       <c r="D68" t="n">
-        <v>30.5255996349077</v>
+        <v>30.6676221654169</v>
       </c>
       <c r="E68" t="n">
-        <v>39.7967402825083</v>
+        <v>39.3018173740216</v>
       </c>
       <c r="F68" t="n">
         <v>2020</v>
@@ -3364,13 +3364,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>51.7242866816271</v>
+        <v>51.6503415786558</v>
       </c>
       <c r="D69" t="n">
-        <v>45.973984063735</v>
+        <v>45.6335951217753</v>
       </c>
       <c r="E69" t="n">
-        <v>58.0764059963303</v>
+        <v>58.274849065837</v>
       </c>
       <c r="F69" t="n">
         <v>2020</v>
@@ -3402,13 +3402,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>217.532311815941</v>
+        <v>217.905765704902</v>
       </c>
       <c r="D70" t="n">
-        <v>200.052686419868</v>
+        <v>200.059951535021</v>
       </c>
       <c r="E70" t="n">
-        <v>234.777264499342</v>
+        <v>235.889783533372</v>
       </c>
       <c r="F70" t="n">
         <v>2020</v>
@@ -3440,13 +3440,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>13.8447553682922</v>
+        <v>13.8124247777071</v>
       </c>
       <c r="D71" t="n">
-        <v>11.6320503467834</v>
+        <v>11.6304067585959</v>
       </c>
       <c r="E71" t="n">
-        <v>16.4147875280165</v>
+        <v>16.6433368034506</v>
       </c>
       <c r="F71" t="n">
         <v>2020</v>
@@ -3478,13 +3478,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>34.564692918781</v>
+        <v>34.3017661125554</v>
       </c>
       <c r="D72" t="n">
-        <v>29.8643278875291</v>
+        <v>30.1643080727237</v>
       </c>
       <c r="E72" t="n">
-        <v>39.2963584219975</v>
+        <v>39.4165668003105</v>
       </c>
       <c r="F72" t="n">
         <v>2020</v>
@@ -3516,13 +3516,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>59.6229130355521</v>
+        <v>59.8201449450187</v>
       </c>
       <c r="D73" t="n">
-        <v>52.6418768122374</v>
+        <v>52.157724982206</v>
       </c>
       <c r="E73" t="n">
-        <v>67.478661466708</v>
+        <v>68.2448929648501</v>
       </c>
       <c r="F73" t="n">
         <v>2020</v>
@@ -3554,13 +3554,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>128.724124060203</v>
+        <v>129.028313937349</v>
       </c>
       <c r="D74" t="n">
-        <v>117.032220898703</v>
+        <v>117.189157419727</v>
       </c>
       <c r="E74" t="n">
-        <v>141.115739561993</v>
+        <v>141.331762624931</v>
       </c>
       <c r="F74" t="n">
         <v>2020</v>
@@ -3592,13 +3592,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>21.0842478986335</v>
+        <v>21.14451001163</v>
       </c>
       <c r="D75" t="n">
-        <v>18.1470189420562</v>
+        <v>18.3060908578939</v>
       </c>
       <c r="E75" t="n">
-        <v>24.6331982743829</v>
+        <v>24.42550620357</v>
       </c>
       <c r="F75" t="n">
         <v>2020</v>
@@ -3630,13 +3630,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>18.4146341688847</v>
+        <v>18.3791569001293</v>
       </c>
       <c r="D76" t="n">
-        <v>15.1513670540213</v>
+        <v>15.1636784215642</v>
       </c>
       <c r="E76" t="n">
-        <v>22.2374651344236</v>
+        <v>22.4312845594618</v>
       </c>
       <c r="F76" t="n">
         <v>2020</v>
@@ -3668,13 +3668,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>165.302680235651</v>
+        <v>165.556534550508</v>
       </c>
       <c r="D77" t="n">
-        <v>151.514113536588</v>
+        <v>150.125702005217</v>
       </c>
       <c r="E77" t="n">
-        <v>179.997234970534</v>
+        <v>181.682160733945</v>
       </c>
       <c r="F77" t="n">
         <v>2020</v>
@@ -3706,13 +3706,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>45.4252200561859</v>
+        <v>45.2874184332816</v>
       </c>
       <c r="D78" t="n">
-        <v>39.6967711771979</v>
+        <v>39.8220064977799</v>
       </c>
       <c r="E78" t="n">
-        <v>52.1464722079533</v>
+        <v>51.7482307424898</v>
       </c>
       <c r="F78" t="n">
         <v>2020</v>
@@ -3744,13 +3744,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>68.4852068334364</v>
+        <v>68.4045876621161</v>
       </c>
       <c r="D79" t="n">
-        <v>59.5833188339073</v>
+        <v>59.4595971081104</v>
       </c>
       <c r="E79" t="n">
-        <v>78.1398995697173</v>
+        <v>78.3354627671411</v>
       </c>
       <c r="F79" t="n">
         <v>2020</v>
@@ -3782,13 +3782,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>73.4790219674153</v>
+        <v>73.3260217609761</v>
       </c>
       <c r="D80" t="n">
-        <v>64.877407392265</v>
+        <v>64.9937160461584</v>
       </c>
       <c r="E80" t="n">
-        <v>82.7452814632477</v>
+        <v>82.6384851611462</v>
       </c>
       <c r="F80" t="n">
         <v>2020</v>
@@ -3820,13 +3820,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>84.5066195501385</v>
+        <v>84.7801041000492</v>
       </c>
       <c r="D81" t="n">
-        <v>75.5761024383864</v>
+        <v>76.2817793448088</v>
       </c>
       <c r="E81" t="n">
-        <v>93.9853963874056</v>
+        <v>95.037673245877</v>
       </c>
       <c r="F81" t="n">
         <v>2020</v>
@@ -3858,13 +3858,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>91.7177399605561</v>
+        <v>92.0763761817608</v>
       </c>
       <c r="D82" t="n">
-        <v>83.0202327731651</v>
+        <v>83.2549533110335</v>
       </c>
       <c r="E82" t="n">
-        <v>101.535836619479</v>
+        <v>102.394982165483</v>
       </c>
       <c r="F82" t="n">
         <v>2020</v>
@@ -3896,13 +3896,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>292.701878906979</v>
+        <v>292.682307568227</v>
       </c>
       <c r="D83" t="n">
-        <v>272.364431320068</v>
+        <v>270.17786367759</v>
       </c>
       <c r="E83" t="n">
-        <v>315.325586663526</v>
+        <v>317.304619877443</v>
       </c>
       <c r="F83" t="n">
         <v>2020</v>
@@ -3934,13 +3934,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>32.9270322636829</v>
+        <v>32.8367403159658</v>
       </c>
       <c r="D84" t="n">
-        <v>28.9117642539017</v>
+        <v>29.0730886587389</v>
       </c>
       <c r="E84" t="n">
-        <v>37.6180002557206</v>
+        <v>37.0031105557451</v>
       </c>
       <c r="F84" t="n">
         <v>2020</v>
@@ -3972,13 +3972,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>68.7432877594491</v>
+        <v>68.5107469877976</v>
       </c>
       <c r="D85" t="n">
-        <v>61.6085170251217</v>
+        <v>61.0538534211747</v>
       </c>
       <c r="E85" t="n">
-        <v>76.7474773790259</v>
+        <v>76.8992353551593</v>
       </c>
       <c r="F85" t="n">
         <v>2020</v>
@@ -4010,13 +4010,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>69.2007163989051</v>
+        <v>69.3479468682997</v>
       </c>
       <c r="D86" t="n">
-        <v>62.1409076429611</v>
+        <v>62.0704807552443</v>
       </c>
       <c r="E86" t="n">
-        <v>77.4082981379842</v>
+        <v>77.6368302189172</v>
       </c>
       <c r="F86" t="n">
         <v>2020</v>
@@ -4048,13 +4048,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>180.169789428395</v>
+        <v>179.317075104939</v>
       </c>
       <c r="D87" t="n">
-        <v>164.896693806331</v>
+        <v>163.446963671714</v>
       </c>
       <c r="E87" t="n">
-        <v>197.805784008273</v>
+        <v>195.973692200383</v>
       </c>
       <c r="F87" t="n">
         <v>2020</v>
@@ -4086,13 +4086,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>18.0883009133143</v>
+        <v>18.1076861079566</v>
       </c>
       <c r="D88" t="n">
-        <v>15.6815249160706</v>
+        <v>15.3223857915831</v>
       </c>
       <c r="E88" t="n">
-        <v>20.9041492332197</v>
+        <v>20.7481730784926</v>
       </c>
       <c r="F88" t="n">
         <v>2020</v>
@@ -4124,13 +4124,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>60.4023120864232</v>
+        <v>60.7016699494075</v>
       </c>
       <c r="D89" t="n">
-        <v>53.3722493563285</v>
+        <v>53.4568009186209</v>
       </c>
       <c r="E89" t="n">
-        <v>68.0881933629713</v>
+        <v>67.886016909792</v>
       </c>
       <c r="F89" t="n">
         <v>2020</v>
@@ -4162,13 +4162,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>86.7787612382795</v>
+        <v>87.0830136045308</v>
       </c>
       <c r="D90" t="n">
-        <v>78.1239015156175</v>
+        <v>78.0274771334717</v>
       </c>
       <c r="E90" t="n">
-        <v>96.0608564152731</v>
+        <v>96.9548099023892</v>
       </c>
       <c r="F90" t="n">
         <v>2020</v>
@@ -4200,13 +4200,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>76.9610048117007</v>
+        <v>76.719973187081</v>
       </c>
       <c r="D91" t="n">
-        <v>68.9524376072128</v>
+        <v>68.6956504851003</v>
       </c>
       <c r="E91" t="n">
-        <v>86.603160654402</v>
+        <v>85.6318573118845</v>
       </c>
       <c r="F91" t="n">
         <v>2020</v>
@@ -4238,13 +4238,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>196.474982256495</v>
+        <v>198.007889696494</v>
       </c>
       <c r="D92" t="n">
-        <v>179.832055642715</v>
+        <v>181.481666009252</v>
       </c>
       <c r="E92" t="n">
-        <v>213.521267738472</v>
+        <v>215.907601759877</v>
       </c>
       <c r="F92" t="n">
         <v>2020</v>
@@ -4276,13 +4276,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>101.688000521955</v>
+        <v>101.672743145826</v>
       </c>
       <c r="D93" t="n">
-        <v>91.7831095428188</v>
+        <v>91.1651053526941</v>
       </c>
       <c r="E93" t="n">
-        <v>113.133255939625</v>
+        <v>112.845248774975</v>
       </c>
       <c r="F93" t="n">
         <v>2020</v>
@@ -4314,13 +4314,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>22.9054815889684</v>
+        <v>22.8184629002727</v>
       </c>
       <c r="D94" t="n">
-        <v>19.7872088560474</v>
+        <v>19.7415969160828</v>
       </c>
       <c r="E94" t="n">
-        <v>25.9366181194682</v>
+        <v>26.1057446635553</v>
       </c>
       <c r="F94" t="n">
         <v>2020</v>
@@ -4352,13 +4352,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>3.25262362863533</v>
+        <v>3.17332691490578</v>
       </c>
       <c r="D95" t="n">
-        <v>2.55044780528047</v>
+        <v>2.47399989970396</v>
       </c>
       <c r="E95" t="n">
-        <v>4.15871897310882</v>
+        <v>4.03413999076767</v>
       </c>
       <c r="F95" t="n">
         <v>2020</v>
@@ -4390,13 +4390,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>39.725933629395</v>
+        <v>39.7889898343698</v>
       </c>
       <c r="D96" t="n">
-        <v>34.6903645066245</v>
+        <v>34.9477867780807</v>
       </c>
       <c r="E96" t="n">
-        <v>45.5061770134077</v>
+        <v>45.5864240116352</v>
       </c>
       <c r="F96" t="n">
         <v>2020</v>
@@ -4428,13 +4428,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>103.151218845543</v>
+        <v>103.726131945673</v>
       </c>
       <c r="D97" t="n">
-        <v>93.6805497753844</v>
+        <v>93.6066043616795</v>
       </c>
       <c r="E97" t="n">
-        <v>113.957703598863</v>
+        <v>114.757719692998</v>
       </c>
       <c r="F97" t="n">
         <v>2020</v>
@@ -4466,13 +4466,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>78.7204169488369</v>
+        <v>78.8231323573833</v>
       </c>
       <c r="D98" t="n">
-        <v>71.4675755799678</v>
+        <v>70.3147190173844</v>
       </c>
       <c r="E98" t="n">
-        <v>87.3801049337547</v>
+        <v>87.5646352552978</v>
       </c>
       <c r="F98" t="n">
         <v>2020</v>
@@ -4504,13 +4504,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>70.6057796129102</v>
+        <v>70.6837057481175</v>
       </c>
       <c r="D99" t="n">
-        <v>62.9406060622393</v>
+        <v>63.8092426478381</v>
       </c>
       <c r="E99" t="n">
-        <v>79.600482463281</v>
+        <v>79.2984535389924</v>
       </c>
       <c r="F99" t="n">
         <v>2020</v>
@@ -4542,13 +4542,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>58.7691625163127</v>
+        <v>58.4158436391158</v>
       </c>
       <c r="D100" t="n">
-        <v>52.408512762859</v>
+        <v>52.2047575910864</v>
       </c>
       <c r="E100" t="n">
-        <v>65.1908119773071</v>
+        <v>64.9602761908537</v>
       </c>
       <c r="F100" t="n">
         <v>2020</v>
@@ -4580,13 +4580,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>24.126930301728</v>
+        <v>23.9084647688197</v>
       </c>
       <c r="D101" t="n">
-        <v>20.9870033415139</v>
+        <v>20.7760734728336</v>
       </c>
       <c r="E101" t="n">
-        <v>27.5351819774048</v>
+        <v>27.291944995528</v>
       </c>
       <c r="F101" t="n">
         <v>2020</v>
@@ -4618,13 +4618,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>223.095684770676</v>
+        <v>224.131392847345</v>
       </c>
       <c r="D102" t="n">
-        <v>205.44824367024</v>
+        <v>206.635853219144</v>
       </c>
       <c r="E102" t="n">
-        <v>241.965953898375</v>
+        <v>244.647084091079</v>
       </c>
       <c r="F102" t="n">
         <v>2020</v>
@@ -4656,13 +4656,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>155.09645203677</v>
+        <v>155.94294873406</v>
       </c>
       <c r="D103" t="n">
-        <v>141.505828669434</v>
+        <v>142.303865950331</v>
       </c>
       <c r="E103" t="n">
-        <v>170.29114870083</v>
+        <v>170.223164642526</v>
       </c>
       <c r="F103" t="n">
         <v>2020</v>
@@ -4694,13 +4694,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>64.5081029579235</v>
+        <v>64.8124368368964</v>
       </c>
       <c r="D104" t="n">
-        <v>57.806778502532</v>
+        <v>58.049334481006</v>
       </c>
       <c r="E104" t="n">
-        <v>72.2815416499598</v>
+        <v>72.2875883325636</v>
       </c>
       <c r="F104" t="n">
         <v>2020</v>
@@ -4732,13 +4732,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>82.6284145833929</v>
+        <v>83.0074319372624</v>
       </c>
       <c r="D105" t="n">
-        <v>74.3827386925606</v>
+        <v>74.7554514483744</v>
       </c>
       <c r="E105" t="n">
-        <v>92.0988697850649</v>
+        <v>92.1271596295697</v>
       </c>
       <c r="F105" t="n">
         <v>2020</v>
@@ -4770,13 +4770,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>628.944716901243</v>
+        <v>629.793816362107</v>
       </c>
       <c r="D106" t="n">
-        <v>592.298277583911</v>
+        <v>588.972093789469</v>
       </c>
       <c r="E106" t="n">
-        <v>667.687638467795</v>
+        <v>673.254141841588</v>
       </c>
       <c r="F106" t="n">
         <v>2020</v>
@@ -4808,13 +4808,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>77.0875229527224</v>
+        <v>77.3983119365388</v>
       </c>
       <c r="D107" t="n">
-        <v>68.1056694915778</v>
+        <v>68.3178089639133</v>
       </c>
       <c r="E107" t="n">
-        <v>88.2432179248196</v>
+        <v>88.3449544862532</v>
       </c>
       <c r="F107" t="n">
         <v>2020</v>
@@ -4846,13 +4846,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>75.2419037047613</v>
+        <v>75.2230736230741</v>
       </c>
       <c r="D108" t="n">
-        <v>67.2651748629781</v>
+        <v>67.726546078161</v>
       </c>
       <c r="E108" t="n">
-        <v>84.4598773487181</v>
+        <v>84.0667111717742</v>
       </c>
       <c r="F108" t="n">
         <v>2020</v>
@@ -4884,13 +4884,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>36.334769926094</v>
+        <v>36.578267915507</v>
       </c>
       <c r="D109" t="n">
-        <v>32.1304814665123</v>
+        <v>32.0357162810103</v>
       </c>
       <c r="E109" t="n">
-        <v>41.6736279628006</v>
+        <v>41.3652833064717</v>
       </c>
       <c r="F109" t="n">
         <v>2020</v>
@@ -4922,13 +4922,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>102.285864582715</v>
+        <v>102.725262491549</v>
       </c>
       <c r="D110" t="n">
-        <v>90.7635468467849</v>
+        <v>92.0907101303178</v>
       </c>
       <c r="E110" t="n">
-        <v>113.451332981144</v>
+        <v>114.146162169872</v>
       </c>
       <c r="F110" t="n">
         <v>2020</v>
@@ -4960,13 +4960,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>100.480735765203</v>
+        <v>99.8276033728898</v>
       </c>
       <c r="D111" t="n">
-        <v>90.9361341668818</v>
+        <v>89.4227167740348</v>
       </c>
       <c r="E111" t="n">
-        <v>110.610883679976</v>
+        <v>112.046543671625</v>
       </c>
       <c r="F111" t="n">
         <v>2020</v>
@@ -4998,13 +4998,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>27.4877006954758</v>
+        <v>27.473762208201</v>
       </c>
       <c r="D112" t="n">
-        <v>23.6227282550541</v>
+        <v>23.5384939030224</v>
       </c>
       <c r="E112" t="n">
-        <v>31.6764750875399</v>
+        <v>31.9401537798081</v>
       </c>
       <c r="F112" t="n">
         <v>2020</v>
@@ -5036,13 +5036,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>67.8359163862563</v>
+        <v>67.9783093766881</v>
       </c>
       <c r="D113" t="n">
-        <v>60.3349510572046</v>
+        <v>60.2149045334801</v>
       </c>
       <c r="E113" t="n">
-        <v>76.4917295170449</v>
+        <v>76.7082426196112</v>
       </c>
       <c r="F113" t="n">
         <v>2020</v>
@@ -5074,13 +5074,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>65.0728782246938</v>
+        <v>64.9680045248616</v>
       </c>
       <c r="D114" t="n">
-        <v>57.900687684139</v>
+        <v>57.7268334601064</v>
       </c>
       <c r="E114" t="n">
-        <v>72.5026659161466</v>
+        <v>73.8310946981971</v>
       </c>
       <c r="F114" t="n">
         <v>2020</v>
@@ -5112,13 +5112,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>129.209968157578</v>
+        <v>129.338143591776</v>
       </c>
       <c r="D115" t="n">
-        <v>116.801209862225</v>
+        <v>117.42412699695</v>
       </c>
       <c r="E115" t="n">
-        <v>141.677743137048</v>
+        <v>143.066354689093</v>
       </c>
       <c r="F115" t="n">
         <v>2020</v>
@@ -5150,13 +5150,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>78.617038759648</v>
+        <v>78.7339410370597</v>
       </c>
       <c r="D116" t="n">
-        <v>69.8492660178432</v>
+        <v>69.8160765097879</v>
       </c>
       <c r="E116" t="n">
-        <v>87.939585292264</v>
+        <v>88.0325378239339</v>
       </c>
       <c r="F116" t="n">
         <v>2020</v>
@@ -5188,13 +5188,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>25.1806683004028</v>
+        <v>25.0299702756591</v>
       </c>
       <c r="D117" t="n">
-        <v>21.2671613776294</v>
+        <v>21.3699286317959</v>
       </c>
       <c r="E117" t="n">
-        <v>29.4610776673945</v>
+        <v>29.6154817711957</v>
       </c>
       <c r="F117" t="n">
         <v>2020</v>
@@ -5226,13 +5226,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>35.4779546877442</v>
+        <v>35.4999765792419</v>
       </c>
       <c r="D118" t="n">
-        <v>30.5083484587724</v>
+        <v>30.6325256332055</v>
       </c>
       <c r="E118" t="n">
-        <v>41.3222031389465</v>
+        <v>41.3791848254864</v>
       </c>
       <c r="F118" t="n">
         <v>2020</v>
@@ -5264,13 +5264,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>103.971235678766</v>
+        <v>103.739206244972</v>
       </c>
       <c r="D119" t="n">
-        <v>93.7086689115591</v>
+        <v>93.5927555496482</v>
       </c>
       <c r="E119" t="n">
-        <v>114.591171347771</v>
+        <v>115.945901945259</v>
       </c>
       <c r="F119" t="n">
         <v>2020</v>
@@ -5302,13 +5302,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>14.5340050677501</v>
+        <v>14.4069883299384</v>
       </c>
       <c r="D120" t="n">
-        <v>12.5827790463188</v>
+        <v>12.4901920624811</v>
       </c>
       <c r="E120" t="n">
-        <v>16.7809755348823</v>
+        <v>16.6990122624387</v>
       </c>
       <c r="F120" t="n">
         <v>2020</v>
@@ -5340,13 +5340,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>76.6114640156413</v>
+        <v>76.5289450715866</v>
       </c>
       <c r="D121" t="n">
-        <v>69.5435862244583</v>
+        <v>68.699941923012</v>
       </c>
       <c r="E121" t="n">
-        <v>85.6902839087887</v>
+        <v>85.5865404872207</v>
       </c>
       <c r="F121" t="n">
         <v>2020</v>
@@ -5378,13 +5378,13 @@
         <v>122</v>
       </c>
       <c r="C122" t="n">
-        <v>134.93177220874</v>
+        <v>134.368617120531</v>
       </c>
       <c r="D122" t="n">
-        <v>123.582530408126</v>
+        <v>121.64419896174</v>
       </c>
       <c r="E122" t="n">
-        <v>147.256305682205</v>
+        <v>147.734528407393</v>
       </c>
       <c r="F122" t="n">
         <v>2020</v>
@@ -5416,13 +5416,13 @@
         <v>123</v>
       </c>
       <c r="C123" t="n">
-        <v>276.041622367351</v>
+        <v>275.825054118683</v>
       </c>
       <c r="D123" t="n">
-        <v>256.36595119718</v>
+        <v>254.438081938583</v>
       </c>
       <c r="E123" t="n">
-        <v>296.484223552363</v>
+        <v>297.677743222636</v>
       </c>
       <c r="F123" t="n">
         <v>2020</v>
@@ -5454,13 +5454,13 @@
         <v>124</v>
       </c>
       <c r="C124" t="n">
-        <v>331.217970490695</v>
+        <v>332.503694573266</v>
       </c>
       <c r="D124" t="n">
-        <v>306.534751485921</v>
+        <v>306.641226259638</v>
       </c>
       <c r="E124" t="n">
-        <v>357.772484799442</v>
+        <v>359.900068292316</v>
       </c>
       <c r="F124" t="n">
         <v>2020</v>
@@ -5492,13 +5492,13 @@
         <v>125</v>
       </c>
       <c r="C125" t="n">
-        <v>713.419496954446</v>
+        <v>714.322041591098</v>
       </c>
       <c r="D125" t="n">
-        <v>671.613214617474</v>
+        <v>667.542793638446</v>
       </c>
       <c r="E125" t="n">
-        <v>756.382977665127</v>
+        <v>759.205238213536</v>
       </c>
       <c r="F125" t="n">
         <v>2020</v>
@@ -5530,13 +5530,13 @@
         <v>126</v>
       </c>
       <c r="C126" t="n">
-        <v>133.442142885099</v>
+        <v>132.601212194372</v>
       </c>
       <c r="D126" t="n">
-        <v>121.081696605728</v>
+        <v>118.877196963711</v>
       </c>
       <c r="E126" t="n">
-        <v>147.592583934816</v>
+        <v>145.605121345944</v>
       </c>
       <c r="F126" t="n">
         <v>2020</v>
@@ -5568,13 +5568,13 @@
         <v>127</v>
       </c>
       <c r="C127" t="n">
-        <v>103.782104092807</v>
+        <v>104.063439780381</v>
       </c>
       <c r="D127" t="n">
-        <v>93.9771628507027</v>
+        <v>93.7524231288933</v>
       </c>
       <c r="E127" t="n">
-        <v>114.729403280534</v>
+        <v>114.860223776137</v>
       </c>
       <c r="F127" t="n">
         <v>2020</v>
@@ -5606,13 +5606,13 @@
         <v>128</v>
       </c>
       <c r="C128" t="n">
-        <v>105.943795643047</v>
+        <v>105.898464223668</v>
       </c>
       <c r="D128" t="n">
-        <v>95.6498444007151</v>
+        <v>95.4577558685778</v>
       </c>
       <c r="E128" t="n">
-        <v>116.777209098119</v>
+        <v>116.996615153029</v>
       </c>
       <c r="F128" t="n">
         <v>2020</v>
@@ -5644,13 +5644,13 @@
         <v>129</v>
       </c>
       <c r="C129" t="n">
-        <v>61.4802777889445</v>
+        <v>61.5733045354632</v>
       </c>
       <c r="D129" t="n">
-        <v>54.8400668774454</v>
+        <v>54.7092174683995</v>
       </c>
       <c r="E129" t="n">
-        <v>69.2725168064719</v>
+        <v>68.6514229215728</v>
       </c>
       <c r="F129" t="n">
         <v>2020</v>
@@ -5682,13 +5682,13 @@
         <v>130</v>
       </c>
       <c r="C130" t="n">
-        <v>53.6292035447052</v>
+        <v>53.5560606129705</v>
       </c>
       <c r="D130" t="n">
-        <v>47.5957242374583</v>
+        <v>47.6487956329738</v>
       </c>
       <c r="E130" t="n">
-        <v>59.5591319463761</v>
+        <v>60.4760428798796</v>
       </c>
       <c r="F130" t="n">
         <v>2020</v>
